--- a/src/SheetToObjects.ConsoleApp/Files/profiles.xlsx
+++ b/src/SheetToObjects.ConsoleApp/Files/profiles.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneGegevens_1" localSheetId="0" hidden="1">profiles!$A$1:$I$5</definedName>
+    <definedName name="ExterneGegevens_1" localSheetId="0" hidden="1">profiles!$A$1:$J$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>emailaddress</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>yes2</t>
+  </si>
+  <si>
+    <t>dateofbirth</t>
   </si>
 </sst>
 </file>
@@ -152,14 +155,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -199,13 +206,14 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExterneGegevens_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
-    <queryTableFields count="9">
+  <queryTableRefresh nextId="11">
+    <queryTableFields count="10">
       <queryTableField id="1" name="emailaddress" tableColumnId="1"/>
       <queryTableField id="2" name="relationnumber" tableColumnId="2"/>
       <queryTableField id="3" name="firstname" tableColumnId="3"/>
       <queryTableField id="4" name="middlename" tableColumnId="4"/>
       <queryTableField id="5" name="lastname" tableColumnId="5"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
       <queryTableField id="6" name="gender" tableColumnId="6"/>
       <queryTableField id="7" name="language" tableColumnId="7"/>
       <queryTableField id="8" name="terms" tableColumnId="8"/>
@@ -216,17 +224,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="profiles" displayName="profiles" ref="A1:I5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I5"/>
-  <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="emailaddress" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" uniqueName="2" name="relationnumber" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" uniqueName="3" name="firstname" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" uniqueName="4" name="middlename" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" uniqueName="5" name="lastname" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" uniqueName="6" name="gender" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" uniqueName="7" name="language" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" uniqueName="8" name="terms" queryTableFieldId="8" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="profiles" displayName="profiles" ref="A1:J5" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J5"/>
+  <tableColumns count="10">
+    <tableColumn id="1" uniqueName="1" name="emailaddress" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" uniqueName="2" name="relationnumber" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" uniqueName="3" name="firstname" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" uniqueName="4" name="middlename" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" uniqueName="5" name="lastname" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="10" uniqueName="10" name="dateofbirth" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="6" uniqueName="6" name="gender" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" uniqueName="7" name="language" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="8" uniqueName="8" name="terms" queryTableFieldId="8" dataDxfId="1"/>
     <tableColumn id="9" uniqueName="9" name="profiletype" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -530,9 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -541,13 +552,14 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.4609375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" customWidth="1"/>
+    <col min="7" max="7" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,19 +576,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -592,20 +607,23 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2">
+        <v>18264</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -621,20 +639,23 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2">
+        <v>21948</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -650,20 +671,23 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2">
+        <v>25917</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -679,13 +703,16 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2">
+        <v>42855</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
